--- a/data/EDA/Correlaciones/Correlaciones Junio.xlsx
+++ b/data/EDA/Correlaciones/Correlaciones Junio.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haide\OneDrive\Documentos\03_Data_Science\3_Proyecto_datos_finanzas_2025\01_project_linear_regresion\data\EDA\Correlaciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haide\OneDrive\Documentos\02_Datos\01_Data_Science\3_Proyecto_datos_finanzas_2025\01_project_linear_regresion\data\EDA\Correlaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18077AFF-A237-438B-BA75-016DD1C3B2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72135B48-1E63-4B6C-B158-FB50ABF3AA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3633831F-7DAD-4706-ACFA-385B18FBFB29}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Junio" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -100,7 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +111,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -164,14 +179,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -190,6 +202,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,25 +532,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE087354-D31F-435D-BD2A-579B868A81B1}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="4" width="11.5546875" style="13"/>
+    <col min="11" max="12" width="11.5546875" style="13"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="42" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -540,10 +572,10 @@
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -556,223 +588,229 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
         <v>0.38541666666666669</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="10">
         <v>0.17708333333333334</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="12">
         <v>0.1875</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>0.90625</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>0.91666666666666663</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="10">
         <v>0.69791666666666663</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="10">
         <v>0.70833333333333337</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>0.5625</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="2">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="10">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="10">
         <v>0.36458333333333331</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="3">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
         <v>0.90625</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>0.91666666666666663</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="10">
         <v>0.69791666666666663</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="10">
         <v>0.70833333333333337</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>0.9375</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.94791666666666663</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="10">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="10">
         <v>0.73958333333333337</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>0.80208333333333337</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>0.8125</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="11">
         <v>0.59375</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="12">
         <v>0.60416666666666663</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>0.90625</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="11">
         <v>0.69791666666666663</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="11">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>0.61458333333333337</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>0.625</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="11">
         <v>0.40625</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>0.36458333333333331</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="11">
         <v>0.14583333333333334</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="12">
         <v>0.15625</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>0.23958333333333334</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>0.25</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="11">
         <v>3.125E-2</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="6" t="s">
         <v>22</v>
       </c>
     </row>
